--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3882,158 +3882,158 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>6</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>3</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>6</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>6</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Caution</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>5</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
+      <c r="F468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B471" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" t="b">
-        <v>1</v>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K471" t="b">
-        <v>1</v>
-      </c>
-      <c r="L471" t="inlineStr">
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J471" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B472" t="inlineStr">
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" t="b">
-        <v>1</v>
-      </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-      <c r="L472" t="inlineStr">
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J472" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B473" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/17/word_level_predictions_17.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3882,158 +3882,158 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Caution</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>43</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>4</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" s="2" t="inlineStr">
+      <c r="F468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>43</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>43</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>6</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" t="n">
         <v>43</v>
       </c>
-      <c r="B471" s="2" t="inlineStr">
+      <c r="B471" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" s="2" t="inlineStr">
+      <c r="C471" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" s="2" t="n">
+      <c r="D471" t="n">
         <v>7</v>
       </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L471" s="2" t="inlineStr">
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K471" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" t="n">
         <v>43</v>
       </c>
-      <c r="B472" s="2" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" s="2" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" s="2" t="n">
+      <c r="D472" t="n">
         <v>8</v>
       </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L472" s="2" t="inlineStr">
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K472" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" t="n">
         <v>43</v>
       </c>
-      <c r="B473" s="2" t="inlineStr">
+      <c r="B473" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" s="2" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" s="2" t="n">
+      <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L473" s="2" t="inlineStr">
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" t="n">
         <v>43</v>
       </c>
-      <c r="B474" s="2" t="inlineStr">
+      <c r="B474" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" s="2" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" s="2" t="n">
+      <c r="D474" t="n">
         <v>10</v>
       </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
